--- a/Documentation/Game Progression.xlsx
+++ b/Documentation/Game Progression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Rock_Paper_Scissors_Repo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179A453-8AEA-4334-A587-A8C40F55CD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133296B-7149-4938-9DBD-D345AB513CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Turn</t>
   </si>
   <si>
     <t>Pillow Forts</t>
-  </si>
-  <si>
-    <t>Pillow Outposts</t>
   </si>
   <si>
     <t>Units</t>
@@ -54,16 +51,10 @@
     <t>Traps</t>
   </si>
   <si>
-    <t>Enemies</t>
-  </si>
-  <si>
     <t>Bonus Currency</t>
   </si>
   <si>
     <t>Currency Gained</t>
-  </si>
-  <si>
-    <t>Currency Total</t>
   </si>
   <si>
     <t>Avg Unit Price</t>
@@ -79,6 +70,51 @@
   </si>
   <si>
     <t>Outpost Upgrade</t>
+  </si>
+  <si>
+    <t>Currency Total (End of Turn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Enemies </t>
+  </si>
+  <si>
+    <t>Amount per Enemy Defeated</t>
+  </si>
+  <si>
+    <t>Enemies Killed</t>
+  </si>
+  <si>
+    <t>Enemies Spawned</t>
+  </si>
+  <si>
+    <t>Units Purchased</t>
+  </si>
+  <si>
+    <t>Currency Spent</t>
+  </si>
+  <si>
+    <t>Units Lost</t>
+  </si>
+  <si>
+    <t>Outposts Purchased</t>
+  </si>
+  <si>
+    <t>Outposts Lost</t>
+  </si>
+  <si>
+    <t>Amount Per Fort</t>
+  </si>
+  <si>
+    <t>Amount Per Outpost Level 1</t>
+  </si>
+  <si>
+    <t>Pillow Outposts Level 1</t>
+  </si>
+  <si>
+    <t>Pillow Outposts Level 2</t>
+  </si>
+  <si>
+    <t>Amount Per Outpost Level 2</t>
   </si>
 </sst>
 </file>
@@ -123,14 +159,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,6 +249,1058 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Progression'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Units</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Progression'!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-111E-4FAC-8C44-93377FD8C8FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Game Progression'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Enemies </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Game Progression'!$P$2:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-111E-4FAC-8C44-93377FD8C8FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="712153599"/>
+        <c:axId val="712151199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="712153599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712151199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712151199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712153599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C73171-010F-0231-D543-FD726925525E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,9 +1566,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -416,17 +1576,27 @@
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="10" width="15.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,43 +1604,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
       </c>
       <c r="O1" t="s">
         <v>11</v>
       </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,36 +1686,83 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
-        <v>1</v>
+        <f>C2-D2-G2</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>G2</f>
+        <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>H2*$T$2+G2*$V$2+C2*$U$2</f>
+        <v>210</v>
+      </c>
+      <c r="K2">
+        <f>H2-I2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>400</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>G2+H2</f>
-        <v>400</v>
-      </c>
-      <c r="L2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>M2+N2-J2</f>
+        <v>190</v>
+      </c>
+      <c r="P2">
+        <f>R2-Q2</f>
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="T2">
         <v>50</v>
       </c>
-      <c r="M2">
+      <c r="U2">
         <v>100</v>
       </c>
-      <c r="N2">
+      <c r="V2">
+        <v>60</v>
+      </c>
+      <c r="W2">
         <v>50</v>
       </c>
-      <c r="O2">
-        <v>50</v>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>30</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,14 +1772,57 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <v>3</v>
+        <f>C3+E2-G3</f>
+        <v>1</v>
       </c>
       <c r="F3">
+        <f>F2+G3-D3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>H3*$T$2+G3*$V$2+C3*$U$2</f>
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <f>K2-I3+H3</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>B3*$Y$2+E3*$Z$2+Q3*$X$2+F3*$AA$2</f>
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <f>O2+M3+N3-J3</f>
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <f>P2+R3-Q3</f>
+        <v>4</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -534,16 +1830,59 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <f t="shared" ref="E4:E21" si="0">C4+E3-G4</f>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f t="shared" ref="F4:F21" si="1">F3+G4-D4</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J21" si="2">H4*$T$2+G4*$V$2+C4*$U$2</f>
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K21" si="3">K3-I4+H4</f>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N21" si="4">B4*$Y$2+E4*$Z$2+Q4*$X$2+F4*$AA$2</f>
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O21" si="5">O3+M4+N4-J4</f>
+        <v>130</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P21" si="6">P3+R4-Q4</f>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -551,145 +1890,1043 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <f>O16+M17+N17-J17</f>
+        <v>140</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H50">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>B2+E2+F2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Game Progression.xlsx
+++ b/Documentation/Game Progression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Rock_Paper_Scissors_Repo\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133296B-7149-4938-9DBD-D345AB513CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC0A7D-6445-4A11-BA20-A991712C1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Progression" sheetId="1" r:id="rId1"/>
@@ -159,65 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -346,52 +295,52 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,34 +415,34 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,14 +1640,14 @@
       </c>
       <c r="E2">
         <f>C2-D2-G2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>G2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1707,8 +1656,8 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>H2*$T$2+G2*$V$2+C2*$U$2</f>
-        <v>210</v>
+        <f>H2*$T$2+G2*$V$2+C2*$U$2+L2*$W$2</f>
+        <v>150</v>
       </c>
       <c r="K2">
         <f>H2-I2</f>
@@ -1718,14 +1667,14 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
         <f>M2+N2-J2</f>
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="P2">
         <f>R2-Q2</f>
@@ -1744,10 +1693,10 @@
         <v>100</v>
       </c>
       <c r="V2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X2">
         <v>10</v>
@@ -1770,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1781,7 +1730,7 @@
       </c>
       <c r="F3">
         <f>F2+G3-D3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1793,8 +1742,8 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>H3*$T$2+G3*$V$2+C3*$U$2</f>
-        <v>150</v>
+        <f t="shared" ref="J3:J21" si="0">H3*$T$2+G3*$V$2+C3*$U$2+L3*$W$2</f>
+        <v>50</v>
       </c>
       <c r="K3">
         <f>K2-I3+H3</f>
@@ -1808,11 +1757,11 @@
       </c>
       <c r="N3">
         <f>B3*$Y$2+E3*$Z$2+Q3*$X$2+F3*$AA$2</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <f>O2+M3+N3-J3</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P3">
         <f>P2+R3-Q3</f>
@@ -1836,12 +1785,12 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E21" si="0">C4+E3-G4</f>
+        <f t="shared" ref="E4:E21" si="1">C4+E3-G4</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F21" si="1">F3+G4-D4</f>
-        <v>1</v>
+        <f t="shared" ref="F4:F21" si="2">F3+G4-D4</f>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1853,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J21" si="2">H4*$T$2+G4*$V$2+C4*$U$2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K4">
@@ -1868,11 +1817,11 @@
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N21" si="4">B4*$Y$2+E4*$Z$2+Q4*$X$2+F4*$AA$2</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O21" si="5">O3+M4+N4-J4</f>
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P21" si="6">P3+R4-Q4</f>
@@ -1890,49 +1839,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
@@ -1949,50 +1898,50 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>100</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
@@ -2012,50 +1961,50 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
@@ -2072,50 +2021,50 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
@@ -2136,32 +2085,32 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -2171,11 +2120,11 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="6"/>
@@ -2192,50 +2141,50 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>100</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P10">
         <f t="shared" si="6"/>
@@ -2255,50 +2204,50 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O11">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
@@ -2315,41 +2264,41 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
@@ -2358,14 +2307,14 @@
       </c>
       <c r="O12">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="P12">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2379,32 +2328,32 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -2414,18 +2363,18 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -2435,54 +2384,54 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>100</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P14">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -2501,51 +2450,51 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P15">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -2561,51 +2510,51 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -2622,32 +2571,32 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <f>F16+G17-D17</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -2657,15 +2606,15 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O17" s="1">
         <f>O16+M17+N17-J17</f>
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="1">
         <v>2</v>
@@ -2678,46 +2627,46 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>100</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
@@ -2725,7 +2674,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -2741,54 +2690,54 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="P19">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -2801,54 +2750,54 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="P20">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -2868,29 +2817,29 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -2900,15 +2849,15 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="1">
         <v>2</v>
@@ -2916,12 +2865,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H50">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>B2+E2+F2</formula>
     </cfRule>
   </conditionalFormatting>
